--- a/Assessments/Unit4/4.1.2/delivery_satisfaction.xlsx
+++ b/Assessments/Unit4/4.1.2/delivery_satisfaction.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc.sharepoint.com/sites/SophiaAcademicsCD/PW/Business Data Analytics/Assessments/Assessment Data/Unit 4/4.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/Assessments/Unit4/4.1.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{C520C779-FC88-4582-A6DD-41A0E8F872D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29FF8AF9-712D-43CD-85C2-13B2CEA5CE4F}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{C520C779-FC88-4582-A6DD-41A0E8F872D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9D1C844-0A20-477E-BEFD-76BF1F85C07B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{932726B1-F4BF-4C20-A2E1-E102D459E34D}"/>
   </bookViews>
@@ -41,10 +41,10 @@
     <t>Week</t>
   </si>
   <si>
-    <t>Delivery_Time (minutes) (x)</t>
+    <t>Delivery_Time (minutes)</t>
   </si>
   <si>
-    <t>Customer_Satisfaction_Score (y)</t>
+    <t>Customer_Satisfaction_Score</t>
   </si>
 </sst>
 </file>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEFBACC-78E4-4784-9B08-5D1199E31CE4}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -448,7 +448,7 @@
     <col min="3" max="3" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="70" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,6 +740,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c7bf0040-ac83-4da7-b072-3c1b65a214b3" xsi:nil="true"/>
+    <Status xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
+    <Tag xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
+    <Year xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DD084E42E705654B9CF1FB4D1B6F86C3" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="537e09eec9479df6b3b9277a829eeea6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xmlns:ns3="c7bf0040-ac83-4da7-b072-3c1b65a214b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="954325e78edeaac226e03e3e0adada46" ns2:_="" ns3:_="">
     <xsd:import namespace="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
@@ -1003,30 +1026,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F2A79B7-E6C5-4377-8D22-D4F1C134DEB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c7bf0040-ac83-4da7-b072-3c1b65a214b3" xsi:nil="true"/>
-    <Status xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
-    <Tag xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
-    <Year xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{033CCC1F-EC98-4FB3-A1C8-0CC34B7706FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6E55449-295A-404F-AAA0-19FEF4BA031D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1045,31 +1070,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{033CCC1F-EC98-4FB3-A1C8-0CC34B7706FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F2A79B7-E6C5-4377-8D22-D4F1C134DEB9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" enabled="0" method="" siteId="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" removed="1"/>
